--- a/Examples/Udf/Sample.AddIn/FunctionTests.xlsx
+++ b/Examples/Udf/Sample.AddIn/FunctionTests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ExcelMVC\Examples\Udf\Samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ExcelMVC\Examples\Udf\Sample.AddIn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC32093A-946C-433F-A7CF-E8647D5E3420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2872E866-13F0-474D-8C02-A39FA367917A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3413" yWindow="727" windowWidth="17947" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="2557" windowWidth="21165" windowHeight="13043" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,21 +189,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="excelmvc.610f9d9f7541465c903e03a29120448b">
-      <tp t="s">
-        <v>time:2024-04-21T10:25:48.4423678+10:00 topic:Test</v>
-        <stp/>
-        <stp>Test</stp>
-        <tr r="B21" s="1"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -469,9 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -506,9 +492,9 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" cm="1">
+      <c r="B3" t="e" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">_xll.uDateTime(NOW())</f>
-        <v>45403.434597222222</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -690,9 +676,9 @@
       <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" t="str" cm="1">
-        <f t="array" ref="B21">_xll.uTimer("Test")</f>
-        <v>time:2024-04-21T10:25:48.4423678+10:00 topic:Test</v>
+      <c r="B21" t="e" cm="1">
+        <f t="array" aca="1" ref="B21" ca="1">_xll.uTimer("Test")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
